--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Github\GitHub\Politique-Monetaire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC96C77B-290E-4168-B934-454377714E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51254DB6-96A2-4A9F-B5C6-542BBF77D8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{52707B4B-B9D3-4D3B-B588-5196E3122C46}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Or</t>
   </si>
@@ -481,15 +481,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4CE5BF-419E-473C-873B-71B2E9A23FCF}">
-  <dimension ref="A1:M409"/>
+  <dimension ref="A1:L409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -526,11 +526,8 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>32904</v>
       </c>
@@ -567,11 +564,8 @@
       <c r="L2">
         <v>1.5649999999999999</v>
       </c>
-      <c r="M2">
-        <v>198.83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>32932</v>
       </c>
@@ -608,11 +602,8 @@
       <c r="L3">
         <v>1.5649999999999999</v>
       </c>
-      <c r="M3">
-        <v>195.94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>32962</v>
       </c>
@@ -649,11 +640,8 @@
       <c r="L4">
         <v>1.5649999999999999</v>
       </c>
-      <c r="M4">
-        <v>198.61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>32993</v>
       </c>
@@ -690,11 +678,8 @@
       <c r="L5">
         <v>1.5649999999999999</v>
       </c>
-      <c r="M5">
-        <v>193.94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>33024</v>
       </c>
@@ -731,11 +716,8 @@
       <c r="L6">
         <v>1.59</v>
       </c>
-      <c r="M6">
-        <v>189.81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>33053</v>
       </c>
@@ -772,11 +754,8 @@
       <c r="L7">
         <v>1.5189999999999999</v>
       </c>
-      <c r="M7">
-        <v>184.18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>33085</v>
       </c>
@@ -813,11 +792,8 @@
       <c r="L8">
         <v>1.411</v>
       </c>
-      <c r="M8">
-        <v>196.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>33116</v>
       </c>
@@ -854,11 +830,8 @@
       <c r="L9">
         <v>1.5</v>
       </c>
-      <c r="M9">
-        <v>225.45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>33144</v>
       </c>
@@ -895,11 +868,8 @@
       <c r="L10">
         <v>1.9350000000000001</v>
       </c>
-      <c r="M10">
-        <v>270.19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>33177</v>
       </c>
@@ -936,11 +906,8 @@
       <c r="L11">
         <v>2.36</v>
       </c>
-      <c r="M11">
-        <v>249.37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>33207</v>
       </c>
@@ -977,11 +944,8 @@
       <c r="L12">
         <v>2.4449999999999998</v>
       </c>
-      <c r="M12">
-        <v>227.61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>33238</v>
       </c>
@@ -1018,11 +982,8 @@
       <c r="L13">
         <v>1.95</v>
       </c>
-      <c r="M13">
-        <v>219.97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>33269</v>
       </c>
@@ -1059,11 +1020,8 @@
       <c r="L14">
         <v>1.38</v>
       </c>
-      <c r="M14">
-        <v>194.44759999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>33297</v>
       </c>
@@ -1100,11 +1058,8 @@
       <c r="L15">
         <v>1.373</v>
       </c>
-      <c r="M15">
-        <v>191.2345</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>33326</v>
       </c>
@@ -1141,11 +1096,8 @@
       <c r="L16">
         <v>1.405</v>
       </c>
-      <c r="M16">
-        <v>194.1259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>33358</v>
       </c>
@@ -1182,11 +1134,8 @@
       <c r="L17">
         <v>1.375</v>
       </c>
-      <c r="M17">
-        <v>195.99799999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>33389</v>
       </c>
@@ -1223,11 +1172,8 @@
       <c r="L18">
         <v>1.333</v>
       </c>
-      <c r="M18">
-        <v>192.89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>33417</v>
       </c>
@@ -1264,11 +1210,8 @@
       <c r="L19">
         <v>1.208</v>
       </c>
-      <c r="M19">
-        <v>185.44730000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>33450</v>
       </c>
@@ -1305,11 +1248,8 @@
       <c r="L20">
         <v>1.26</v>
       </c>
-      <c r="M20">
-        <v>191.88759999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>33480</v>
       </c>
@@ -1346,11 +1286,8 @@
       <c r="L21">
         <v>1.5640000000000001</v>
       </c>
-      <c r="M21">
-        <v>192.6421</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>33511</v>
       </c>
@@ -1387,11 +1324,8 @@
       <c r="L22">
         <v>1.9350000000000001</v>
       </c>
-      <c r="M22">
-        <v>193.92760000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>33542</v>
       </c>
@@ -1428,11 +1362,8 @@
       <c r="L23">
         <v>2.0459999999999998</v>
       </c>
-      <c r="M23">
-        <v>198.55090000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>33571</v>
       </c>
@@ -1469,11 +1400,8 @@
       <c r="L24">
         <v>2.09</v>
       </c>
-      <c r="M24">
-        <v>190.1044</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>33603</v>
       </c>
@@ -1510,11 +1438,8 @@
       <c r="L25">
         <v>1.343</v>
       </c>
-      <c r="M25">
-        <v>176.9177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>33634</v>
       </c>
@@ -1551,11 +1476,8 @@
       <c r="L26">
         <v>1.18</v>
       </c>
-      <c r="M26">
-        <v>182.3528</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>33662</v>
       </c>
@@ -1592,11 +1514,8 @@
       <c r="L27">
         <v>1.171</v>
       </c>
-      <c r="M27">
-        <v>181.77780000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>33694</v>
       </c>
@@ -1633,11 +1552,8 @@
       <c r="L28">
         <v>1.357</v>
       </c>
-      <c r="M28">
-        <v>184.73679999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>33724</v>
       </c>
@@ -1674,11 +1590,8 @@
       <c r="L29">
         <v>1.4219999999999999</v>
       </c>
-      <c r="M29">
-        <v>190.12029999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>33753</v>
       </c>
@@ -1715,11 +1628,8 @@
       <c r="L30">
         <v>1.625</v>
       </c>
-      <c r="M30">
-        <v>193.01929999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>33785</v>
       </c>
@@ -1756,11 +1666,8 @@
       <c r="L31">
         <v>1.518</v>
       </c>
-      <c r="M31">
-        <v>190.88730000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>33816</v>
       </c>
@@ -1797,11 +1704,8 @@
       <c r="L32">
         <v>1.8919999999999999</v>
       </c>
-      <c r="M32">
-        <v>186.6917</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>33847</v>
       </c>
@@ -1838,11 +1742,8 @@
       <c r="L33">
         <v>2.1120000000000001</v>
       </c>
-      <c r="M33">
-        <v>186.3997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33877</v>
       </c>
@@ -1879,11 +1780,8 @@
       <c r="L34">
         <v>2.5150000000000001</v>
       </c>
-      <c r="M34">
-        <v>187.04650000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33907</v>
       </c>
@@ -1920,11 +1818,8 @@
       <c r="L35">
         <v>2.2949999999999999</v>
       </c>
-      <c r="M35">
-        <v>182.40819999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>33938</v>
       </c>
@@ -1961,11 +1856,8 @@
       <c r="L36">
         <v>2.0870000000000002</v>
       </c>
-      <c r="M36">
-        <v>180.0958</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>33969</v>
       </c>
@@ -2002,11 +1894,8 @@
       <c r="L37">
         <v>1.6870000000000001</v>
       </c>
-      <c r="M37">
-        <v>181.00640000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>33998</v>
       </c>
@@ -2043,11 +1932,8 @@
       <c r="L38">
         <v>1.597</v>
       </c>
-      <c r="M38">
-        <v>183.34819999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>34026</v>
       </c>
@@ -2084,11 +1970,8 @@
       <c r="L39">
         <v>1.8560000000000001</v>
       </c>
-      <c r="M39">
-        <v>186.50139999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>34059</v>
       </c>
@@ -2125,11 +2008,8 @@
       <c r="L40">
         <v>2.069</v>
       </c>
-      <c r="M40">
-        <v>190.17099999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>34089</v>
       </c>
@@ -2166,11 +2046,8 @@
       <c r="L41">
         <v>2.3650000000000002</v>
       </c>
-      <c r="M41">
-        <v>187.66630000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>34120</v>
       </c>
@@ -2207,11 +2084,8 @@
       <c r="L42">
         <v>2.141</v>
       </c>
-      <c r="M42">
-        <v>181.21610000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>34150</v>
       </c>
@@ -2248,11 +2122,8 @@
       <c r="L43">
         <v>2.181</v>
       </c>
-      <c r="M43">
-        <v>175.96960000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>34180</v>
       </c>
@@ -2289,11 +2160,8 @@
       <c r="L44">
         <v>2.2200000000000002</v>
       </c>
-      <c r="M44">
-        <v>174.0556</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>34212</v>
       </c>
@@ -2330,11 +2198,8 @@
       <c r="L45">
         <v>2.375</v>
       </c>
-      <c r="M45">
-        <v>175.84139999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>34242</v>
       </c>
@@ -2371,11 +2236,8 @@
       <c r="L46">
         <v>2.2909999999999999</v>
       </c>
-      <c r="M46">
-        <v>177.357</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>34271</v>
       </c>
@@ -2412,11 +2274,8 @@
       <c r="L47">
         <v>2.3679999999999999</v>
       </c>
-      <c r="M47">
-        <v>171.41640000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>34303</v>
       </c>
@@ -2453,11 +2312,8 @@
       <c r="L48">
         <v>2.2429999999999999</v>
       </c>
-      <c r="M48">
-        <v>165.0651</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>34334</v>
       </c>
@@ -2494,11 +2350,8 @@
       <c r="L49">
         <v>1.9970000000000001</v>
       </c>
-      <c r="M49">
-        <v>163.55420000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>34365</v>
       </c>
@@ -2535,11 +2388,8 @@
       <c r="L50">
         <v>2.5539999999999998</v>
       </c>
-      <c r="M50">
-        <v>177.35239999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>34393</v>
       </c>
@@ -2576,11 +2426,8 @@
       <c r="L51">
         <v>2.2080000000000002</v>
       </c>
-      <c r="M51">
-        <v>171.232</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>34424</v>
       </c>
@@ -2617,11 +2464,8 @@
       <c r="L52">
         <v>2.0750000000000002</v>
       </c>
-      <c r="M52">
-        <v>170.38589999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>34453</v>
       </c>
@@ -2658,11 +2502,8 @@
       <c r="L53">
         <v>2.0670000000000002</v>
       </c>
-      <c r="M53">
-        <v>174.55629999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>34485</v>
       </c>
@@ -2699,11 +2540,8 @@
       <c r="L54">
         <v>1.917</v>
       </c>
-      <c r="M54">
-        <v>176.76009999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>34515</v>
       </c>
@@ -2740,11 +2578,8 @@
       <c r="L55">
         <v>2.1840000000000002</v>
       </c>
-      <c r="M55">
-        <v>180.08340000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>34544</v>
       </c>
@@ -2781,11 +2616,8 @@
       <c r="L56">
         <v>1.893</v>
       </c>
-      <c r="M56">
-        <v>182.52070000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>34577</v>
       </c>
@@ -2822,11 +2654,8 @@
       <c r="L57">
         <v>1.5860000000000001</v>
       </c>
-      <c r="M57">
-        <v>170.2628</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>34607</v>
       </c>
@@ -2863,11 +2692,8 @@
       <c r="L58">
         <v>1.657</v>
       </c>
-      <c r="M58">
-        <v>171.41579999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>34638</v>
       </c>
@@ -2904,11 +2730,8 @@
       <c r="L59">
         <v>1.95</v>
       </c>
-      <c r="M59">
-        <v>179.036</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>34668</v>
       </c>
@@ -2945,11 +2768,8 @@
       <c r="L60">
         <v>1.6950000000000001</v>
       </c>
-      <c r="M60">
-        <v>175.16640000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>34698</v>
       </c>
@@ -2986,11 +2806,8 @@
       <c r="L61">
         <v>1.7250000000000001</v>
       </c>
-      <c r="M61">
-        <v>180.7578</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>34730</v>
       </c>
@@ -3027,11 +2844,8 @@
       <c r="L62">
         <v>1.3540000000000001</v>
       </c>
-      <c r="M62">
-        <v>176.00389999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>34758</v>
       </c>
@@ -3068,11 +2882,8 @@
       <c r="L63">
         <v>1.4830000000000001</v>
       </c>
-      <c r="M63">
-        <v>177.10830000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>34789</v>
       </c>
@@ -3109,11 +2920,8 @@
       <c r="L64">
         <v>1.6850000000000001</v>
       </c>
-      <c r="M64">
-        <v>179.05969999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>34817</v>
       </c>
@@ -3150,11 +2958,8 @@
       <c r="L65">
         <v>1.6619999999999999</v>
       </c>
-      <c r="M65">
-        <v>183.63470000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>34850</v>
       </c>
@@ -3191,11 +2996,8 @@
       <c r="L66">
         <v>1.718</v>
       </c>
-      <c r="M66">
-        <v>180.80680000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>34880</v>
       </c>
@@ -3232,11 +3034,8 @@
       <c r="L67">
         <v>1.53</v>
       </c>
-      <c r="M67">
-        <v>174.4889</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>34911</v>
       </c>
@@ -3273,11 +3072,8 @@
       <c r="L68">
         <v>1.6140000000000001</v>
       </c>
-      <c r="M68">
-        <v>177.33709999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>34942</v>
       </c>
@@ -3314,11 +3110,8 @@
       <c r="L69">
         <v>1.748</v>
       </c>
-      <c r="M69">
-        <v>180.5308</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>34971</v>
       </c>
@@ -3355,11 +3148,8 @@
       <c r="L70">
         <v>1.75</v>
       </c>
-      <c r="M70">
-        <v>181.08150000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>35003</v>
       </c>
@@ -3396,11 +3186,8 @@
       <c r="L71">
         <v>1.8660000000000001</v>
       </c>
-      <c r="M71">
-        <v>183.1156</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>35033</v>
       </c>
@@ -3437,11 +3224,8 @@
       <c r="L72">
         <v>2.0179999999999998</v>
       </c>
-      <c r="M72">
-        <v>187.92689999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>35062</v>
       </c>
@@ -3478,11 +3262,8 @@
       <c r="L73">
         <v>2.6190000000000002</v>
       </c>
-      <c r="M73">
-        <v>203.49709999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>35095</v>
       </c>
@@ -3519,11 +3300,8 @@
       <c r="L74">
         <v>2.6579999999999999</v>
       </c>
-      <c r="M74">
-        <v>196.8141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>35124</v>
       </c>
@@ -3560,11 +3338,8 @@
       <c r="L75">
         <v>2.2360000000000002</v>
       </c>
-      <c r="M75">
-        <v>197.696</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>35153</v>
       </c>
@@ -3601,11 +3376,8 @@
       <c r="L76">
         <v>2.3359999999999999</v>
       </c>
-      <c r="M76">
-        <v>206.66399999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>35185</v>
       </c>
@@ -3642,11 +3414,8 @@
       <c r="L77">
         <v>2.2240000000000002</v>
       </c>
-      <c r="M77">
-        <v>209.32740000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>35216</v>
       </c>
@@ -3683,11 +3452,8 @@
       <c r="L78">
         <v>2.4060000000000001</v>
       </c>
-      <c r="M78">
-        <v>203.87119999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>35244</v>
       </c>
@@ -3724,11 +3490,8 @@
       <c r="L79">
         <v>2.911</v>
       </c>
-      <c r="M79">
-        <v>206.52160000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>35277</v>
       </c>
@@ -3765,11 +3528,8 @@
       <c r="L80">
         <v>2.1629999999999998</v>
       </c>
-      <c r="M80">
-        <v>194.65199999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>35307</v>
       </c>
@@ -3806,11 +3566,8 @@
       <c r="L81">
         <v>1.859</v>
       </c>
-      <c r="M81">
-        <v>198.51499999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>35338</v>
       </c>
@@ -3847,11 +3604,8 @@
       <c r="L82">
         <v>2.214</v>
       </c>
-      <c r="M82">
-        <v>205.2159</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>35369</v>
       </c>
@@ -3888,11 +3642,8 @@
       <c r="L83">
         <v>2.7280000000000002</v>
       </c>
-      <c r="M83">
-        <v>204.92080000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>35398</v>
       </c>
@@ -3929,11 +3680,8 @@
       <c r="L84">
         <v>3.4969999999999999</v>
       </c>
-      <c r="M84">
-        <v>218.98169999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>35430</v>
       </c>
@@ -3970,11 +3718,8 @@
       <c r="L85">
         <v>2.7570000000000001</v>
       </c>
-      <c r="M85">
-        <v>215.25630000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>35461</v>
       </c>
@@ -4011,11 +3756,8 @@
       <c r="L86">
         <v>2.3849999999999998</v>
       </c>
-      <c r="M86">
-        <v>204.90989999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>35489</v>
       </c>
@@ -4052,11 +3794,8 @@
       <c r="L87">
         <v>1.821</v>
       </c>
-      <c r="M87">
-        <v>188.8185</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>35520</v>
       </c>
@@ -4093,11 +3832,8 @@
       <c r="L88">
         <v>1.9259999999999999</v>
       </c>
-      <c r="M88">
-        <v>192.4289</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>35550</v>
       </c>
@@ -4134,11 +3870,8 @@
       <c r="L89">
         <v>2.1840000000000002</v>
       </c>
-      <c r="M89">
-        <v>196.76779999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>35580</v>
       </c>
@@ -4175,11 +3908,8 @@
       <c r="L90">
         <v>2.2389999999999999</v>
       </c>
-      <c r="M90">
-        <v>197.36869999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>35611</v>
       </c>
@@ -4216,11 +3946,8 @@
       <c r="L91">
         <v>2.1389999999999998</v>
       </c>
-      <c r="M91">
-        <v>185.16890000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>35642</v>
       </c>
@@ -4257,11 +3984,8 @@
       <c r="L92">
         <v>2.177</v>
       </c>
-      <c r="M92">
-        <v>192.28729999999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>35671</v>
       </c>
@@ -4298,11 +4022,8 @@
       <c r="L93">
         <v>2.714</v>
       </c>
-      <c r="M93">
-        <v>195.76840000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>35703</v>
       </c>
@@ -4339,11 +4060,8 @@
       <c r="L94">
         <v>3.0819999999999999</v>
       </c>
-      <c r="M94">
-        <v>201.73349999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>35734</v>
       </c>
@@ -4380,11 +4098,8 @@
       <c r="L95">
         <v>3.552</v>
       </c>
-      <c r="M95">
-        <v>208.1534</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>35762</v>
       </c>
@@ -4421,11 +4136,8 @@
       <c r="L96">
         <v>2.5779999999999998</v>
       </c>
-      <c r="M96">
-        <v>188.68889999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>35795</v>
       </c>
@@ -4462,11 +4174,8 @@
       <c r="L97">
         <v>2.2639999999999998</v>
       </c>
-      <c r="M97">
-        <v>175.62299999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>35825</v>
       </c>
@@ -4503,11 +4212,8 @@
       <c r="L98">
         <v>2.2570000000000001</v>
       </c>
-      <c r="M98">
-        <v>174.2636</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>35853</v>
       </c>
@@ -4544,11 +4250,8 @@
       <c r="L99">
         <v>2.3210000000000002</v>
       </c>
-      <c r="M99">
-        <v>165.0984</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>35885</v>
       </c>
@@ -4585,11 +4288,8 @@
       <c r="L100">
         <v>2.5219999999999998</v>
       </c>
-      <c r="M100">
-        <v>166.715</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>35915</v>
       </c>
@@ -4626,11 +4326,8 @@
       <c r="L101">
         <v>2.2210000000000001</v>
       </c>
-      <c r="M101">
-        <v>163.8963</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>35944</v>
       </c>
@@ -4667,11 +4364,8 @@
       <c r="L102">
         <v>2.17</v>
       </c>
-      <c r="M102">
-        <v>158.26910000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>35976</v>
       </c>
@@ -4708,11 +4402,8 @@
       <c r="L103">
         <v>2.4689999999999999</v>
       </c>
-      <c r="M103">
-        <v>155.19929999999999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>36007</v>
       </c>
@@ -4749,11 +4440,8 @@
       <c r="L104">
         <v>1.8440000000000001</v>
       </c>
-      <c r="M104">
-        <v>143.60220000000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>36038</v>
       </c>
@@ -4790,11 +4478,8 @@
       <c r="L105">
         <v>1.752</v>
       </c>
-      <c r="M105">
-        <v>136.95959999999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>36068</v>
       </c>
@@ -4831,11 +4516,8 @@
       <c r="L106">
         <v>2.4329999999999998</v>
       </c>
-      <c r="M106">
-        <v>153.76560000000001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>36098</v>
       </c>
@@ -4872,11 +4554,8 @@
       <c r="L107">
         <v>2.2749999999999999</v>
       </c>
-      <c r="M107">
-        <v>148.48509999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>36129</v>
       </c>
@@ -4913,11 +4592,8 @@
       <c r="L108">
         <v>1.976</v>
       </c>
-      <c r="M108">
-        <v>133.48060000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>36160</v>
       </c>
@@ -4954,11 +4630,8 @@
       <c r="L109">
         <v>1.9450000000000001</v>
       </c>
-      <c r="M109">
-        <v>133.01900000000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>36189</v>
       </c>
@@ -4995,11 +4668,8 @@
       <c r="L110">
         <v>1.7769999999999999</v>
       </c>
-      <c r="M110">
-        <v>135.26920000000001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>36217</v>
       </c>
@@ -5036,11 +4706,8 @@
       <c r="L111">
         <v>1.6279999999999999</v>
       </c>
-      <c r="M111">
-        <v>130.81129999999999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>36250</v>
       </c>
@@ -5077,11 +4744,8 @@
       <c r="L112">
         <v>2.0129999999999999</v>
       </c>
-      <c r="M112">
-        <v>153.93539999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>36280</v>
       </c>
@@ -5118,11 +4782,8 @@
       <c r="L113">
         <v>2.2530000000000001</v>
       </c>
-      <c r="M113">
-        <v>160.97710000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>36311</v>
       </c>
@@ -5159,11 +4820,8 @@
       <c r="L114">
         <v>2.3580000000000001</v>
       </c>
-      <c r="M114">
-        <v>152.21969999999999</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>36341</v>
       </c>
@@ -5200,11 +4858,8 @@
       <c r="L115">
         <v>2.3940000000000001</v>
       </c>
-      <c r="M115">
-        <v>163.36199999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>36371</v>
       </c>
@@ -5241,11 +4896,8 @@
       <c r="L116">
         <v>2.5430000000000001</v>
       </c>
-      <c r="M116">
-        <v>169.17179999999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>36403</v>
       </c>
@@ -5282,11 +4934,8 @@
       <c r="L117">
         <v>2.8250000000000002</v>
       </c>
-      <c r="M117">
-        <v>181.62450000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>36433</v>
       </c>
@@ -5323,11 +4972,8 @@
       <c r="L118">
         <v>2.7440000000000002</v>
       </c>
-      <c r="M118">
-        <v>191.06299999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>36462</v>
       </c>
@@ -5364,11 +5010,8 @@
       <c r="L119">
         <v>2.9609999999999999</v>
       </c>
-      <c r="M119">
-        <v>181.39019999999999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>36494</v>
       </c>
@@ -5405,11 +5048,8 @@
       <c r="L120">
         <v>2.3039999999999998</v>
       </c>
-      <c r="M120">
-        <v>189.66229999999999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>36525</v>
       </c>
@@ -5446,11 +5086,8 @@
       <c r="L121">
         <v>2.3290000000000002</v>
       </c>
-      <c r="M121">
-        <v>194.53720000000001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>36556</v>
       </c>
@@ -5487,11 +5124,8 @@
       <c r="L122">
         <v>2.6619999999999999</v>
       </c>
-      <c r="M122">
-        <v>206.36510000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>36585</v>
       </c>
@@ -5528,11 +5162,8 @@
       <c r="L123">
         <v>2.7610000000000001</v>
       </c>
-      <c r="M123">
-        <v>216.00890000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>36616</v>
       </c>
@@ -5569,11 +5200,8 @@
       <c r="L124">
         <v>2.9449999999999998</v>
       </c>
-      <c r="M124">
-        <v>206.88149999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>36644</v>
       </c>
@@ -5610,11 +5238,8 @@
       <c r="L125">
         <v>3.141</v>
       </c>
-      <c r="M125">
-        <v>203.20849999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>36677</v>
       </c>
@@ -5651,11 +5276,8 @@
       <c r="L126">
         <v>4.3559999999999999</v>
       </c>
-      <c r="M126">
-        <v>223.20310000000001</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>36707</v>
       </c>
@@ -5692,11 +5314,8 @@
       <c r="L127">
         <v>4.476</v>
       </c>
-      <c r="M127">
-        <v>235.71369999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>36738</v>
       </c>
@@ -5733,11 +5352,8 @@
       <c r="L128">
         <v>3.774</v>
       </c>
-      <c r="M128">
-        <v>213.32679999999999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>36769</v>
       </c>
@@ -5774,11 +5390,8 @@
       <c r="L129">
         <v>4.782</v>
       </c>
-      <c r="M129">
-        <v>244.39879999999999</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>36798</v>
       </c>
@@ -5815,11 +5428,8 @@
       <c r="L130">
         <v>5.1859999999999999</v>
       </c>
-      <c r="M130">
-        <v>237.48330000000001</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>36830</v>
       </c>
@@ -5856,11 +5466,8 @@
       <c r="L131">
         <v>4.49</v>
       </c>
-      <c r="M131">
-        <v>236.7139</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>36860</v>
       </c>
@@ -5897,11 +5504,8 @@
       <c r="L132">
         <v>6.5890000000000004</v>
       </c>
-      <c r="M132">
-        <v>256.38400000000001</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>36889</v>
       </c>
@@ -5938,11 +5542,8 @@
       <c r="L133">
         <v>9.7750000000000004</v>
       </c>
-      <c r="M133">
-        <v>246.9237</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>36922</v>
       </c>
@@ -5979,11 +5580,8 @@
       <c r="L134">
         <v>5.7069999999999999</v>
       </c>
-      <c r="M134">
-        <v>226.9736</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>36950</v>
       </c>
@@ -6020,11 +5618,8 @@
       <c r="L135">
         <v>5.2359999999999998</v>
       </c>
-      <c r="M135">
-        <v>221.98660000000001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>36980</v>
       </c>
@@ -6061,11 +5656,8 @@
       <c r="L136">
         <v>5.0250000000000004</v>
       </c>
-      <c r="M136">
-        <v>212.7381</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>37011</v>
       </c>
@@ -6102,11 +5694,8 @@
       <c r="L137">
         <v>4.6950000000000003</v>
       </c>
-      <c r="M137">
-        <v>224.23050000000001</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>37042</v>
       </c>
@@ -6143,11 +5732,8 @@
       <c r="L138">
         <v>3.9140000000000001</v>
       </c>
-      <c r="M138">
-        <v>217.62360000000001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>37071</v>
       </c>
@@ -6184,11 +5770,8 @@
       <c r="L139">
         <v>3.0960000000000001</v>
       </c>
-      <c r="M139">
-        <v>202.6644</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>37103</v>
       </c>
@@ -6225,11 +5808,8 @@
       <c r="L140">
         <v>3.2959999999999998</v>
       </c>
-      <c r="M140">
-        <v>201.72</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>37134</v>
       </c>
@@ -6266,11 +5846,8 @@
       <c r="L141">
         <v>2.38</v>
       </c>
-      <c r="M141">
-        <v>203.00280000000001</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>37162</v>
       </c>
@@ -6307,11 +5884,8 @@
       <c r="L142">
         <v>2.2440000000000002</v>
       </c>
-      <c r="M142">
-        <v>181.7182</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>37195</v>
       </c>
@@ -6348,11 +5922,8 @@
       <c r="L143">
         <v>3.2909999999999999</v>
       </c>
-      <c r="M143">
-        <v>175.38050000000001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>37225</v>
       </c>
@@ -6389,11 +5960,8 @@
       <c r="L144">
         <v>2.7010000000000001</v>
       </c>
-      <c r="M144">
-        <v>169.57499999999999</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>37256</v>
       </c>
@@ -6430,11 +5998,8 @@
       <c r="L145">
         <v>2.57</v>
       </c>
-      <c r="M145">
-        <v>169.15719999999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>37287</v>
       </c>
@@ -6471,11 +6036,8 @@
       <c r="L146">
         <v>2.1379999999999999</v>
       </c>
-      <c r="M146">
-        <v>166.0257</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>37315</v>
       </c>
@@ -6512,11 +6074,8 @@
       <c r="L147">
         <v>2.3570000000000002</v>
       </c>
-      <c r="M147">
-        <v>176.53110000000001</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>37344</v>
       </c>
@@ -6553,11 +6112,8 @@
       <c r="L148">
         <v>3.2829999999999999</v>
       </c>
-      <c r="M148">
-        <v>201.22790000000001</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>37376</v>
       </c>
@@ -6594,11 +6150,8 @@
       <c r="L149">
         <v>3.7949999999999999</v>
       </c>
-      <c r="M149">
-        <v>204.2329</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>37407</v>
       </c>
@@ -6635,11 +6188,8 @@
       <c r="L150">
         <v>3.2170000000000001</v>
       </c>
-      <c r="M150">
-        <v>194.28790000000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>37435</v>
       </c>
@@ -6676,11 +6226,8 @@
       <c r="L151">
         <v>3.2450000000000001</v>
       </c>
-      <c r="M151">
-        <v>202.7765</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>37468</v>
       </c>
@@ -6717,11 +6264,8 @@
       <c r="L152">
         <v>2.9540000000000002</v>
       </c>
-      <c r="M152">
-        <v>203.40479999999999</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>37498</v>
       </c>
@@ -6758,11 +6302,8 @@
       <c r="L153">
         <v>3.2959999999999998</v>
       </c>
-      <c r="M153">
-        <v>215.2304</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>37529</v>
       </c>
@@ -6799,11 +6340,8 @@
       <c r="L154">
         <v>4.1379999999999999</v>
       </c>
-      <c r="M154">
-        <v>227.5257</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>37560</v>
       </c>
@@ -6840,11 +6378,8 @@
       <c r="L155">
         <v>4.1559999999999997</v>
       </c>
-      <c r="M155">
-        <v>217.423</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>37589</v>
       </c>
@@ -6881,11 +6416,8 @@
       <c r="L156">
         <v>4.2</v>
       </c>
-      <c r="M156">
-        <v>217.5085</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>37621</v>
       </c>
@@ -6922,11 +6454,8 @@
       <c r="L157">
         <v>4.7889999999999997</v>
       </c>
-      <c r="M157">
-        <v>235.1541</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>37652</v>
       </c>
@@ -6963,11 +6492,8 @@
       <c r="L158">
         <v>5.6050000000000004</v>
       </c>
-      <c r="M158">
-        <v>253.45140000000001</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>37680</v>
       </c>
@@ -7004,11 +6530,8 @@
       <c r="L159">
         <v>8.1010000000000009</v>
       </c>
-      <c r="M159">
-        <v>278.572</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>37711</v>
       </c>
@@ -7045,11 +6568,8 @@
       <c r="L160">
         <v>5.0599999999999996</v>
       </c>
-      <c r="M160">
-        <v>232.27879999999999</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>37741</v>
       </c>
@@ -7086,11 +6606,8 @@
       <c r="L161">
         <v>5.3849999999999998</v>
       </c>
-      <c r="M161">
-        <v>215.63759999999999</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>37771</v>
       </c>
@@ -7127,11 +6644,8 @@
       <c r="L162">
         <v>6.2510000000000003</v>
       </c>
-      <c r="M162">
-        <v>235.2415</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>37802</v>
       </c>
@@ -7168,11 +6682,8 @@
       <c r="L163">
         <v>5.4109999999999996</v>
       </c>
-      <c r="M163">
-        <v>233.2028</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>37833</v>
       </c>
@@ -7209,11 +6720,8 @@
       <c r="L164">
         <v>4.718</v>
       </c>
-      <c r="M164">
-        <v>233.15629999999999</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>37862</v>
       </c>
@@ -7250,11 +6758,8 @@
       <c r="L165">
         <v>4.7309999999999999</v>
       </c>
-      <c r="M165">
-        <v>242.459</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>37894</v>
       </c>
@@ -7291,11 +6796,8 @@
       <c r="L166">
         <v>4.83</v>
       </c>
-      <c r="M166">
-        <v>232.6344</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>37925</v>
       </c>
@@ -7332,11 +6834,8 @@
       <c r="L167">
         <v>4.8929999999999998</v>
       </c>
-      <c r="M167">
-        <v>238.48949999999999</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>37953</v>
       </c>
@@ -7373,11 +6872,8 @@
       <c r="L168">
         <v>4.9249999999999998</v>
       </c>
-      <c r="M168">
-        <v>245.8032</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>37986</v>
       </c>
@@ -7414,11 +6910,8 @@
       <c r="L169">
         <v>6.1890000000000001</v>
       </c>
-      <c r="M169">
-        <v>260.54340000000002</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>38016</v>
       </c>
@@ -7455,11 +6948,8 @@
       <c r="L170">
         <v>5.3970000000000002</v>
       </c>
-      <c r="M170">
-        <v>260.08800000000002</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>38044</v>
       </c>
@@ -7496,11 +6986,8 @@
       <c r="L171">
         <v>5.4160000000000004</v>
       </c>
-      <c r="M171">
-        <v>278.65559999999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>38077</v>
       </c>
@@ -7537,11 +7024,8 @@
       <c r="L172">
         <v>5.9329999999999998</v>
       </c>
-      <c r="M172">
-        <v>282.12270000000001</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>38107</v>
       </c>
@@ -7578,11 +7062,8 @@
       <c r="L173">
         <v>5.8620000000000001</v>
       </c>
-      <c r="M173">
-        <v>289.51220000000001</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>38138</v>
       </c>
@@ -7619,11 +7100,8 @@
       <c r="L174">
         <v>6.4420000000000002</v>
       </c>
-      <c r="M174">
-        <v>301.4126</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>38168</v>
       </c>
@@ -7660,11 +7138,8 @@
       <c r="L175">
         <v>6.1550000000000002</v>
       </c>
-      <c r="M175">
-        <v>286.3553</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>38198</v>
       </c>
@@ -7701,11 +7176,8 @@
       <c r="L176">
         <v>6.1120000000000001</v>
       </c>
-      <c r="M176">
-        <v>307.4776</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>38230</v>
       </c>
@@ -7742,11 +7214,8 @@
       <c r="L177">
         <v>5.0739999999999998</v>
       </c>
-      <c r="M177">
-        <v>295.59539999999998</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>38260</v>
       </c>
@@ -7783,11 +7252,8 @@
       <c r="L178">
         <v>6.7949999999999999</v>
       </c>
-      <c r="M178">
-        <v>337.7328</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>38289</v>
       </c>
@@ -7824,11 +7290,8 @@
       <c r="L179">
         <v>8.7249999999999996</v>
       </c>
-      <c r="M179">
-        <v>355.24919999999997</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>38321</v>
       </c>
@@ -7865,11 +7328,8 @@
       <c r="L180">
         <v>7.62</v>
       </c>
-      <c r="M180">
-        <v>342.50170000000003</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>38352</v>
       </c>
@@ -7906,11 +7366,8 @@
       <c r="L181">
         <v>6.149</v>
       </c>
-      <c r="M181">
-        <v>310.46730000000002</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>38383</v>
       </c>
@@ -7947,11 +7404,8 @@
       <c r="L182">
         <v>6.3209999999999997</v>
       </c>
-      <c r="M182">
-        <v>331.4828</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>38411</v>
       </c>
@@ -7988,11 +7442,8 @@
       <c r="L183">
         <v>6.73</v>
       </c>
-      <c r="M183">
-        <v>355.85309999999998</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>38442</v>
       </c>
@@ -8029,11 +7480,8 @@
       <c r="L184">
         <v>7.6529999999999996</v>
       </c>
-      <c r="M184">
-        <v>383.62209999999999</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>38471</v>
       </c>
@@ -8070,11 +7518,8 @@
       <c r="L185">
         <v>6.585</v>
       </c>
-      <c r="M185">
-        <v>353.68540000000002</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>38503</v>
       </c>
@@ -8111,11 +7556,8 @@
       <c r="L186">
         <v>6.3789999999999996</v>
       </c>
-      <c r="M186">
-        <v>354.88810000000001</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>38533</v>
       </c>
@@ -8152,11 +7594,8 @@
       <c r="L187">
         <v>6.9809999999999999</v>
       </c>
-      <c r="M187">
-        <v>379.78789999999998</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>38562</v>
       </c>
@@ -8193,11 +7632,8 @@
       <c r="L188">
         <v>7.8849999999999998</v>
       </c>
-      <c r="M188">
-        <v>401.99900000000002</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>38595</v>
       </c>
@@ -8234,11 +7670,8 @@
       <c r="L189">
         <v>11.472</v>
       </c>
-      <c r="M189">
-        <v>465.15069999999997</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>38625</v>
       </c>
@@ -8275,11 +7708,8 @@
       <c r="L190">
         <v>13.920999999999999</v>
       </c>
-      <c r="M190">
-        <v>469.55950000000001</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>38656</v>
       </c>
@@ -8316,11 +7746,8 @@
       <c r="L191">
         <v>12.205</v>
       </c>
-      <c r="M191">
-        <v>422.87630000000001</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>38686</v>
       </c>
@@ -8357,11 +7784,8 @@
       <c r="L192">
         <v>12.587</v>
       </c>
-      <c r="M192">
-        <v>415.90859999999998</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>38716</v>
       </c>
@@ -8398,11 +7822,8 @@
       <c r="L193">
         <v>11.225</v>
       </c>
-      <c r="M193">
-        <v>431.72140000000002</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>38748</v>
       </c>
@@ -8439,11 +7860,8 @@
       <c r="L194">
         <v>9.3160000000000007</v>
       </c>
-      <c r="M194">
-        <v>453.91829999999999</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>38776</v>
       </c>
@@ -8480,11 +7898,8 @@
       <c r="L195">
         <v>6.7140000000000004</v>
       </c>
-      <c r="M195">
-        <v>415.86270000000002</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>38807</v>
       </c>
@@ -8521,11 +7936,8 @@
       <c r="L196">
         <v>7.21</v>
       </c>
-      <c r="M196">
-        <v>442.51900000000001</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>38835</v>
       </c>
@@ -8562,11 +7974,8 @@
       <c r="L197">
         <v>6.5549999999999997</v>
       </c>
-      <c r="M197">
-        <v>474.78629999999998</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>38868</v>
       </c>
@@ -8603,11 +8012,8 @@
       <c r="L198">
         <v>6.3840000000000003</v>
       </c>
-      <c r="M198">
-        <v>474.55459999999999</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>38898</v>
       </c>
@@ -8644,11 +8050,8 @@
       <c r="L199">
         <v>6.1040000000000001</v>
       </c>
-      <c r="M199">
-        <v>484.67529999999999</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>38929</v>
       </c>
@@ -8685,11 +8088,8 @@
       <c r="L200">
         <v>8.2110000000000003</v>
       </c>
-      <c r="M200">
-        <v>498.24759999999998</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>38960</v>
       </c>
@@ -8726,11 +8126,8 @@
       <c r="L201">
         <v>6.048</v>
       </c>
-      <c r="M201">
-        <v>465.86799999999999</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>38989</v>
       </c>
@@ -8767,11 +8164,8 @@
       <c r="L202">
         <v>5.62</v>
       </c>
-      <c r="M202">
-        <v>428.05329999999998</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>39021</v>
       </c>
@@ -8808,11 +8202,8 @@
       <c r="L203">
         <v>7.5339999999999998</v>
       </c>
-      <c r="M203">
-        <v>429.22430000000003</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>39051</v>
       </c>
@@ -8849,11 +8240,8 @@
       <c r="L204">
         <v>8.8439999999999994</v>
       </c>
-      <c r="M204">
-        <v>463.65539999999999</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>39080</v>
       </c>
@@ -8890,11 +8278,8 @@
       <c r="L205">
         <v>6.2990000000000004</v>
       </c>
-      <c r="M205">
-        <v>433.6465</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>39113</v>
       </c>
@@ -8931,11 +8316,8 @@
       <c r="L206">
         <v>7.6669999999999998</v>
       </c>
-      <c r="M206">
-        <v>427.21780000000001</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>39141</v>
       </c>
@@ -8972,11 +8354,8 @@
       <c r="L207">
         <v>7.3</v>
       </c>
-      <c r="M207">
-        <v>448.4914</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>39171</v>
       </c>
@@ -9013,11 +8392,8 @@
       <c r="L208">
         <v>7.73</v>
       </c>
-      <c r="M208">
-        <v>468.11500000000001</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>39202</v>
       </c>
@@ -9054,11 +8430,8 @@
       <c r="L209">
         <v>7.8630000000000004</v>
       </c>
-      <c r="M209">
-        <v>474.46409999999997</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>39233</v>
       </c>
@@ -9095,11 +8468,8 @@
       <c r="L210">
         <v>7.9349999999999996</v>
       </c>
-      <c r="M210">
-        <v>470.64800000000002</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>39262</v>
       </c>
@@ -9136,11 +8506,8 @@
       <c r="L211">
         <v>6.7729999999999997</v>
       </c>
-      <c r="M211">
-        <v>489.15199999999999</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>39294</v>
       </c>
@@ -9177,11 +8544,8 @@
       <c r="L212">
         <v>6.1909999999999998</v>
       </c>
-      <c r="M212">
-        <v>515.94100000000003</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>39325</v>
       </c>
@@ -9218,11 +8582,8 @@
       <c r="L213">
         <v>5.468</v>
       </c>
-      <c r="M213">
-        <v>495.30399999999997</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>39353</v>
       </c>
@@ -9259,11 +8620,8 @@
       <c r="L214">
         <v>6.87</v>
       </c>
-      <c r="M214">
-        <v>546.13300000000004</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>39386</v>
       </c>
@@ -9300,11 +8658,8 @@
       <c r="L215">
         <v>8.33</v>
       </c>
-      <c r="M215">
-        <v>599.30999999999995</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>39416</v>
       </c>
@@ -9341,11 +8696,8 @@
       <c r="L216">
         <v>7.3019999999999996</v>
       </c>
-      <c r="M216">
-        <v>577.98699999999997</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>39447</v>
       </c>
@@ -9382,11 +8734,8 @@
       <c r="L217">
         <v>7.4829999999999997</v>
       </c>
-      <c r="M217">
-        <v>610.16899999999998</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>39478</v>
       </c>
@@ -9423,11 +8772,8 @@
       <c r="L218">
         <v>8.0739999999999998</v>
       </c>
-      <c r="M218">
-        <v>608.37800000000004</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>39507</v>
       </c>
@@ -9464,11 +8810,8 @@
       <c r="L219">
         <v>9.3659999999999997</v>
       </c>
-      <c r="M219">
-        <v>679.77800000000002</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>39538</v>
       </c>
@@ -9505,11 +8848,8 @@
       <c r="L220">
         <v>10.101000000000001</v>
       </c>
-      <c r="M220">
-        <v>668.91300000000001</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>39568</v>
       </c>
@@ -9546,11 +8886,8 @@
       <c r="L221">
         <v>10.843</v>
       </c>
-      <c r="M221">
-        <v>721.06700000000001</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>39598</v>
       </c>
@@ -9587,11 +8924,8 @@
       <c r="L222">
         <v>11.702999999999999</v>
       </c>
-      <c r="M222">
-        <v>786.58299999999997</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>39629</v>
       </c>
@@ -9628,11 +8962,8 @@
       <c r="L223">
         <v>13.353</v>
       </c>
-      <c r="M223">
-        <v>862.80899999999997</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>39660</v>
       </c>
@@ -9669,11 +9000,8 @@
       <c r="L224">
         <v>9.1189999999999998</v>
       </c>
-      <c r="M224">
-        <v>760.19899999999996</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>39689</v>
       </c>
@@ -9710,11 +9038,8 @@
       <c r="L225">
         <v>7.9429999999999996</v>
       </c>
-      <c r="M225">
-        <v>708.15599999999995</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>39721</v>
       </c>
@@ -9751,11 +9076,8 @@
       <c r="L226">
         <v>7.4379999999999997</v>
       </c>
-      <c r="M226">
-        <v>622.23699999999997</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>39752</v>
       </c>
@@ -9792,11 +9114,8 @@
       <c r="L227">
         <v>6.7830000000000004</v>
       </c>
-      <c r="M227">
-        <v>449.46100000000001</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>39780</v>
       </c>
@@ -9833,11 +9152,8 @@
       <c r="L228">
         <v>6.51</v>
       </c>
-      <c r="M228">
-        <v>390.64600000000002</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>39813</v>
       </c>
@@ -9874,11 +9190,8 @@
       <c r="L229">
         <v>5.6219999999999999</v>
       </c>
-      <c r="M229">
-        <v>349.03800000000001</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>39843</v>
       </c>
@@ -9915,11 +9228,8 @@
       <c r="L230">
         <v>4.4169999999999998</v>
       </c>
-      <c r="M230">
-        <v>336.20499999999998</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>39871</v>
       </c>
@@ -9956,11 +9266,8 @@
       <c r="L231">
         <v>4.1980000000000004</v>
       </c>
-      <c r="M231">
-        <v>336.24</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>39903</v>
       </c>
@@ -9997,11 +9304,8 @@
       <c r="L232">
         <v>3.7759999999999998</v>
       </c>
-      <c r="M232">
-        <v>358.52600000000001</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>39933</v>
       </c>
@@ -10038,11 +9342,8 @@
       <c r="L233">
         <v>3.3730000000000002</v>
       </c>
-      <c r="M233">
-        <v>365.84800000000001</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>39962</v>
       </c>
@@ -10079,11 +9380,8 @@
       <c r="L234">
         <v>3.835</v>
       </c>
-      <c r="M234">
-        <v>443.053</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>39994</v>
       </c>
@@ -10120,11 +9418,8 @@
       <c r="L235">
         <v>3.835</v>
       </c>
-      <c r="M235">
-        <v>450.21699999999998</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>40025</v>
       </c>
@@ -10161,11 +9456,8 @@
       <c r="L236">
         <v>3.653</v>
       </c>
-      <c r="M236">
-        <v>457.40699999999998</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>40056</v>
       </c>
@@ -10202,11 +9494,8 @@
       <c r="L237">
         <v>2.9769999999999999</v>
       </c>
-      <c r="M237">
-        <v>453.78699999999998</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>40086</v>
       </c>
@@ -10243,11 +9532,8 @@
       <c r="L238">
         <v>4.8410000000000002</v>
       </c>
-      <c r="M238">
-        <v>462.74799999999999</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>40116</v>
       </c>
@@ -10284,11 +9570,8 @@
       <c r="L239">
         <v>5.0449999999999999</v>
       </c>
-      <c r="M239">
-        <v>496.80799999999999</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>40147</v>
       </c>
@@ -10325,11 +9608,8 @@
       <c r="L240">
         <v>4.8479999999999999</v>
       </c>
-      <c r="M240">
-        <v>512.57399999999996</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>40178</v>
       </c>
@@ -10366,11 +9646,8 @@
       <c r="L241">
         <v>5.5720000000000001</v>
       </c>
-      <c r="M241">
-        <v>524.62099999999998</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>40207</v>
       </c>
@@ -10407,11 +9684,8 @@
       <c r="L242">
         <v>5.1310000000000002</v>
       </c>
-      <c r="M242">
-        <v>486.14499999999998</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>40235</v>
       </c>
@@ -10448,11 +9722,8 @@
       <c r="L243">
         <v>4.8129999999999997</v>
       </c>
-      <c r="M243">
-        <v>517.48400000000004</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>40268</v>
       </c>
@@ -10489,11 +9760,8 @@
       <c r="L244">
         <v>3.8690000000000002</v>
       </c>
-      <c r="M244">
-        <v>530.15899999999999</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>40298</v>
       </c>
@@ -10530,11 +9798,8 @@
       <c r="L245">
         <v>3.92</v>
       </c>
-      <c r="M245">
-        <v>549.94100000000003</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>40329</v>
       </c>
@@ -10571,11 +9836,8 @@
       <c r="L246">
         <v>4.3410000000000002</v>
       </c>
-      <c r="M246">
-        <v>488.19299999999998</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>40359</v>
       </c>
@@ -10612,11 +9874,8 @@
       <c r="L247">
         <v>4.6159999999999997</v>
       </c>
-      <c r="M247">
-        <v>495.17700000000002</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>40389</v>
       </c>
@@ -10653,11 +9912,8 @@
       <c r="L248">
         <v>4.923</v>
       </c>
-      <c r="M248">
-        <v>524.80899999999997</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>40421</v>
       </c>
@@ -10694,11 +9950,8 @@
       <c r="L249">
         <v>3.8159999999999998</v>
       </c>
-      <c r="M249">
-        <v>499.16199999999998</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>40451</v>
       </c>
@@ -10735,11 +9988,8 @@
       <c r="L250">
         <v>3.8719999999999999</v>
       </c>
-      <c r="M250">
-        <v>546.06399999999996</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>40480</v>
       </c>
@@ -10776,11 +10026,8 @@
       <c r="L251">
         <v>4.0380000000000003</v>
       </c>
-      <c r="M251">
-        <v>564.16</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>40512</v>
       </c>
@@ -10817,11 +10064,8 @@
       <c r="L252">
         <v>4.18</v>
       </c>
-      <c r="M252">
-        <v>575.84</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>40543</v>
       </c>
@@ -10858,11 +10102,8 @@
       <c r="L253">
         <v>4.4050000000000002</v>
       </c>
-      <c r="M253">
-        <v>631.83000000000004</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>40574</v>
       </c>
@@ -10899,11 +10140,8 @@
       <c r="L254">
         <v>4.42</v>
       </c>
-      <c r="M254">
-        <v>655.26</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>40602</v>
       </c>
@@ -10940,11 +10178,8 @@
       <c r="L255">
         <v>4.0369999999999999</v>
       </c>
-      <c r="M255">
-        <v>690.85</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>40633</v>
       </c>
@@ -10981,11 +10216,8 @@
       <c r="L256">
         <v>4.3890000000000002</v>
       </c>
-      <c r="M256">
-        <v>725.62</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>40662</v>
       </c>
@@ -11022,11 +10254,8 @@
       <c r="L257">
         <v>4.6980000000000004</v>
       </c>
-      <c r="M257">
-        <v>758.79</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>40694</v>
       </c>
@@ -11063,11 +10292,8 @@
       <c r="L258">
         <v>4.6660000000000004</v>
       </c>
-      <c r="M258">
-        <v>707.26</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>40724</v>
       </c>
@@ -11104,11 +10330,8 @@
       <c r="L259">
         <v>4.3739999999999997</v>
       </c>
-      <c r="M259">
-        <v>668.85</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>40753</v>
       </c>
@@ -11145,11 +10368,8 @@
       <c r="L260">
         <v>4.1449999999999996</v>
       </c>
-      <c r="M260">
-        <v>686.08</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>40786</v>
       </c>
@@ -11186,11 +10406,8 @@
       <c r="L261">
         <v>4.0540000000000003</v>
       </c>
-      <c r="M261">
-        <v>674.69</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>40816</v>
       </c>
@@ -11227,11 +10444,8 @@
       <c r="L262">
         <v>3.6659999999999999</v>
       </c>
-      <c r="M262">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>40847</v>
       </c>
@@ -11268,11 +10482,8 @@
       <c r="L263">
         <v>3.9340000000000002</v>
       </c>
-      <c r="M263">
-        <v>647.96</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>40877</v>
       </c>
@@ -11309,11 +10520,8 @@
       <c r="L264">
         <v>3.55</v>
       </c>
-      <c r="M264">
-        <v>658.02</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>40907</v>
       </c>
@@ -11350,11 +10558,8 @@
       <c r="L265">
         <v>2.9889999999999999</v>
       </c>
-      <c r="M265">
-        <v>644.91</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>40939</v>
       </c>
@@ -11391,11 +10596,8 @@
       <c r="L266">
         <v>2.5030000000000001</v>
       </c>
-      <c r="M266">
-        <v>660.68</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>40968</v>
       </c>
@@ -11432,11 +10634,8 @@
       <c r="L267">
         <v>2.6160000000000001</v>
       </c>
-      <c r="M267">
-        <v>703.5</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>40998</v>
       </c>
@@ -11473,11 +10672,8 @@
       <c r="L268">
         <v>2.1259999999999999</v>
       </c>
-      <c r="M268">
-        <v>688.71</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>41029</v>
       </c>
@@ -11514,11 +10710,8 @@
       <c r="L269">
         <v>2.2850000000000001</v>
       </c>
-      <c r="M269">
-        <v>684.88</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>41060</v>
       </c>
@@ -11555,11 +10748,8 @@
       <c r="L270">
         <v>2.4220000000000002</v>
       </c>
-      <c r="M270">
-        <v>596.20000000000005</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>41089</v>
       </c>
@@ -11596,11 +10786,8 @@
       <c r="L271">
         <v>2.8239999999999998</v>
       </c>
-      <c r="M271">
-        <v>599.44000000000005</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>41121</v>
       </c>
@@ -11637,11 +10824,8 @@
       <c r="L272">
         <v>3.2090000000000001</v>
       </c>
-      <c r="M272">
-        <v>635.82000000000005</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>41152</v>
       </c>
@@ -11678,11 +10862,8 @@
       <c r="L273">
         <v>2.7989999999999999</v>
       </c>
-      <c r="M273">
-        <v>675.03</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>41180</v>
       </c>
@@ -11719,11 +10900,8 @@
       <c r="L274">
         <v>3.32</v>
       </c>
-      <c r="M274">
-        <v>665.73</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>41213</v>
       </c>
@@ -11760,11 +10938,8 @@
       <c r="L275">
         <v>3.6920000000000002</v>
       </c>
-      <c r="M275">
-        <v>637.74</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>41243</v>
       </c>
@@ -11801,11 +10976,8 @@
       <c r="L276">
         <v>3.5609999999999999</v>
       </c>
-      <c r="M276">
-        <v>650.04999999999995</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>41274</v>
       </c>
@@ -11842,11 +11014,8 @@
       <c r="L277">
         <v>3.351</v>
       </c>
-      <c r="M277">
-        <v>646.58000000000004</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>41305</v>
       </c>
@@ -11883,11 +11052,8 @@
       <c r="L278">
         <v>3.339</v>
       </c>
-      <c r="M278">
-        <v>675.37</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>41333</v>
       </c>
@@ -11924,11 +11090,8 @@
       <c r="L279">
         <v>3.4860000000000002</v>
       </c>
-      <c r="M279">
-        <v>648.21</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>41362</v>
       </c>
@@ -11965,11 +11128,8 @@
       <c r="L280">
         <v>4.024</v>
       </c>
-      <c r="M280">
-        <v>655.04999999999995</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>41394</v>
       </c>
@@ -12006,11 +11166,8 @@
       <c r="L281">
         <v>4.343</v>
       </c>
-      <c r="M281">
-        <v>624.44000000000005</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>41425</v>
       </c>
@@ -12047,11 +11204,8 @@
       <c r="L282">
         <v>3.984</v>
       </c>
-      <c r="M282">
-        <v>615.46</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>41453</v>
       </c>
@@ -12088,11 +11242,8 @@
       <c r="L283">
         <v>3.5649999999999999</v>
       </c>
-      <c r="M283">
-        <v>611.29999999999995</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>41486</v>
       </c>
@@ -12129,11 +11280,8 @@
       <c r="L284">
         <v>3.4460000000000002</v>
       </c>
-      <c r="M284">
-        <v>638.64</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>41516</v>
       </c>
@@ -12170,11 +11318,8 @@
       <c r="L285">
         <v>3.581</v>
       </c>
-      <c r="M285">
-        <v>657.05</v>
-      </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>41547</v>
       </c>
@@ -12211,11 +11356,8 @@
       <c r="L286">
         <v>3.56</v>
       </c>
-      <c r="M286">
-        <v>632.4</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>41578</v>
       </c>
@@ -12252,11 +11394,8 @@
       <c r="L287">
         <v>3.581</v>
       </c>
-      <c r="M287">
-        <v>622.52</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>41607</v>
       </c>
@@ -12293,11 +11432,8 @@
       <c r="L288">
         <v>3.9540000000000002</v>
       </c>
-      <c r="M288">
-        <v>620.12</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>41639</v>
       </c>
@@ -12334,11 +11470,8 @@
       <c r="L289">
         <v>4.2300000000000004</v>
       </c>
-      <c r="M289">
-        <v>632.29</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>41670</v>
       </c>
@@ -12375,11 +11508,8 @@
       <c r="L290">
         <v>4.9429999999999996</v>
       </c>
-      <c r="M290">
-        <v>622.26</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>41698</v>
       </c>
@@ -12416,11 +11546,8 @@
       <c r="L291">
         <v>4.609</v>
       </c>
-      <c r="M291">
-        <v>649.64440000000002</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>41729</v>
       </c>
@@ -12457,11 +11584,8 @@
       <c r="L292">
         <v>4.3710000000000004</v>
       </c>
-      <c r="M292">
-        <v>648.85699999999997</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>41759</v>
       </c>
@@ -12498,11 +11622,8 @@
       <c r="L293">
         <v>4.8150000000000004</v>
       </c>
-      <c r="M293">
-        <v>652.51110000000006</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>41789</v>
       </c>
@@ -12539,11 +11660,8 @@
       <c r="L294">
         <v>4.5419999999999998</v>
       </c>
-      <c r="M294">
-        <v>649.63239999999996</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>41820</v>
       </c>
@@ -12580,11 +11698,8 @@
       <c r="L295">
         <v>4.4610000000000003</v>
       </c>
-      <c r="M295">
-        <v>658.57230000000004</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>41851</v>
       </c>
@@ -12621,11 +11736,8 @@
       <c r="L296">
         <v>3.8410000000000002</v>
       </c>
-      <c r="M296">
-        <v>621.70259999999996</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>41880</v>
       </c>
@@ -12662,11 +11774,8 @@
       <c r="L297">
         <v>4.0650000000000004</v>
       </c>
-      <c r="M297">
-        <v>610.91719999999998</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>41912</v>
       </c>
@@ -12703,11 +11812,8 @@
       <c r="L298">
         <v>4.1210000000000004</v>
       </c>
-      <c r="M298">
-        <v>574.29390000000001</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>41943</v>
       </c>
@@ -12744,11 +11850,8 @@
       <c r="L299">
         <v>3.8730000000000002</v>
       </c>
-      <c r="M299">
-        <v>539.59230000000002</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>41971</v>
       </c>
@@ -12785,11 +11888,8 @@
       <c r="L300">
         <v>4.0880000000000001</v>
       </c>
-      <c r="M300">
-        <v>482.11239999999998</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>42004</v>
       </c>
@@ -12826,11 +11926,8 @@
       <c r="L301">
         <v>2.8889999999999998</v>
       </c>
-      <c r="M301">
-        <v>418.1225</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>42034</v>
       </c>
@@ -12867,11 +11964,8 @@
       <c r="L302">
         <v>2.6909999999999998</v>
       </c>
-      <c r="M302">
-        <v>389.68189999999998</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>42062</v>
       </c>
@@ -12908,11 +12002,8 @@
       <c r="L303">
         <v>2.734</v>
       </c>
-      <c r="M303">
-        <v>421.24189999999999</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>42094</v>
       </c>
@@ -12949,11 +12040,8 @@
       <c r="L304">
         <v>2.64</v>
       </c>
-      <c r="M304">
-        <v>396.64920000000001</v>
-      </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>42124</v>
       </c>
@@ -12990,11 +12078,8 @@
       <c r="L305">
         <v>2.7509999999999999</v>
       </c>
-      <c r="M305">
-        <v>445.58479999999997</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>42153</v>
       </c>
@@ -13031,11 +12116,8 @@
       <c r="L306">
         <v>2.6419999999999999</v>
       </c>
-      <c r="M306">
-        <v>439.09370000000001</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>42185</v>
       </c>
@@ -13072,11 +12154,8 @@
       <c r="L307">
         <v>2.8319999999999999</v>
       </c>
-      <c r="M307">
-        <v>440.69260000000003</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>42216</v>
       </c>
@@ -13113,11 +12192,8 @@
       <c r="L308">
         <v>2.7160000000000002</v>
       </c>
-      <c r="M308">
-        <v>378.3843</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>42247</v>
       </c>
@@ -13154,11 +12230,8 @@
       <c r="L309">
         <v>2.6890000000000001</v>
       </c>
-      <c r="M309">
-        <v>380.84800000000001</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>42277</v>
       </c>
@@ -13195,11 +12268,8 @@
       <c r="L310">
         <v>2.524</v>
       </c>
-      <c r="M310">
-        <v>359.33690000000001</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>42307</v>
       </c>
@@ -13236,11 +12306,8 @@
       <c r="L311">
         <v>2.3210000000000002</v>
       </c>
-      <c r="M311">
-        <v>363.44409999999999</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>42338</v>
       </c>
@@ -13277,11 +12344,8 @@
       <c r="L312">
         <v>2.2349999999999999</v>
       </c>
-      <c r="M312">
-        <v>336.14960000000002</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>42369</v>
       </c>
@@ -13318,11 +12382,8 @@
       <c r="L313">
         <v>2.3370000000000002</v>
       </c>
-      <c r="M313">
-        <v>311.6524</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>42398</v>
       </c>
@@ -13359,11 +12420,8 @@
       <c r="L314">
         <v>2.298</v>
       </c>
-      <c r="M314">
-        <v>300.66789999999997</v>
-      </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>42429</v>
       </c>
@@ -13400,11 +12458,8 @@
       <c r="L315">
         <v>1.7110000000000001</v>
       </c>
-      <c r="M315">
-        <v>303.62979999999999</v>
-      </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>42460</v>
       </c>
@@ -13441,11 +12496,8 @@
       <c r="L316">
         <v>1.9590000000000001</v>
       </c>
-      <c r="M316">
-        <v>323.41849999999999</v>
-      </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>42489</v>
       </c>
@@ -13482,11 +12534,8 @@
       <c r="L317">
         <v>2.1779999999999999</v>
       </c>
-      <c r="M317">
-        <v>360.40699999999998</v>
-      </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>42521</v>
       </c>
@@ -13523,11 +12572,8 @@
       <c r="L318">
         <v>2.2879999999999998</v>
       </c>
-      <c r="M318">
-        <v>370.94560000000001</v>
-      </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>42551</v>
       </c>
@@ -13564,11 +12610,8 @@
       <c r="L319">
         <v>2.9239999999999999</v>
       </c>
-      <c r="M319">
-        <v>374.03230000000002</v>
-      </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>42580</v>
       </c>
@@ -13605,11 +12648,8 @@
       <c r="L320">
         <v>2.8759999999999999</v>
       </c>
-      <c r="M320">
-        <v>339.39519999999999</v>
-      </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>42613</v>
       </c>
@@ -13646,11 +12686,8 @@
       <c r="L321">
         <v>2.887</v>
       </c>
-      <c r="M321">
-        <v>348.20780000000002</v>
-      </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>42643</v>
       </c>
@@ -13687,11 +12724,8 @@
       <c r="L322">
         <v>2.9060000000000001</v>
       </c>
-      <c r="M322">
-        <v>364.47109999999998</v>
-      </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>42674</v>
       </c>
@@ -13728,11 +12762,8 @@
       <c r="L323">
         <v>3.0259999999999998</v>
       </c>
-      <c r="M323">
-        <v>361.62299999999999</v>
-      </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>42704</v>
       </c>
@@ -13769,11 +12800,8 @@
       <c r="L324">
         <v>3.3519999999999999</v>
       </c>
-      <c r="M324">
-        <v>377.22120000000001</v>
-      </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>42734</v>
       </c>
@@ -13810,11 +12838,8 @@
       <c r="L325">
         <v>3.7240000000000002</v>
       </c>
-      <c r="M325">
-        <v>398.20389999999998</v>
-      </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>42766</v>
       </c>
@@ -13851,11 +12876,8 @@
       <c r="L326">
         <v>3.117</v>
       </c>
-      <c r="M326">
-        <v>395.83019999999999</v>
-      </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>42794</v>
       </c>
@@ -13892,11 +12914,8 @@
       <c r="L327">
         <v>2.774</v>
       </c>
-      <c r="M327">
-        <v>402.2199</v>
-      </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>42825</v>
       </c>
@@ -13933,11 +12952,8 @@
       <c r="L328">
         <v>3.19</v>
       </c>
-      <c r="M328">
-        <v>388.22449999999998</v>
-      </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>42853</v>
       </c>
@@ -13974,11 +12990,8 @@
       <c r="L329">
         <v>3.2759999999999998</v>
       </c>
-      <c r="M329">
-        <v>382.76580000000001</v>
-      </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>42886</v>
       </c>
@@ -14015,11 +13028,8 @@
       <c r="L330">
         <v>3.0710000000000002</v>
       </c>
-      <c r="M330">
-        <v>377.85379999999998</v>
-      </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>42916</v>
       </c>
@@ -14056,11 +13066,8 @@
       <c r="L331">
         <v>3.0350000000000001</v>
       </c>
-      <c r="M331">
-        <v>372.3775</v>
-      </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>42947</v>
       </c>
@@ -14097,11 +13104,8 @@
       <c r="L332">
         <v>2.794</v>
       </c>
-      <c r="M332">
-        <v>388.06529999999998</v>
-      </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>42978</v>
       </c>
@@ -14138,11 +13142,8 @@
       <c r="L333">
         <v>3.04</v>
       </c>
-      <c r="M333">
-        <v>386.00409999999999</v>
-      </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>43007</v>
       </c>
@@ -14179,11 +13180,8 @@
       <c r="L334">
         <v>3.0070000000000001</v>
       </c>
-      <c r="M334">
-        <v>399.3082</v>
-      </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>43039</v>
       </c>
@@ -14220,11 +13218,8 @@
       <c r="L335">
         <v>2.8959999999999999</v>
       </c>
-      <c r="M335">
-        <v>415.14190000000002</v>
-      </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>43069</v>
       </c>
@@ -14261,11 +13256,8 @@
       <c r="L336">
         <v>3.0249999999999999</v>
       </c>
-      <c r="M336">
-        <v>424.25740000000002</v>
-      </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>43098</v>
       </c>
@@ -14302,11 +13294,8 @@
       <c r="L337">
         <v>2.9529999999999998</v>
       </c>
-      <c r="M337">
-        <v>442.4357</v>
-      </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>43131</v>
       </c>
@@ -14343,11 +13332,8 @@
       <c r="L338">
         <v>2.9950000000000001</v>
       </c>
-      <c r="M338">
-        <v>456.53300000000002</v>
-      </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>43159</v>
       </c>
@@ -14384,11 +13370,8 @@
       <c r="L339">
         <v>2.6669999999999998</v>
       </c>
-      <c r="M339">
-        <v>443.38069999999999</v>
-      </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>43189</v>
       </c>
@@ -14425,11 +13408,8 @@
       <c r="L340">
         <v>2.7330000000000001</v>
       </c>
-      <c r="M340">
-        <v>452.93529999999998</v>
-      </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>43220</v>
       </c>
@@ -14466,11 +13446,8 @@
       <c r="L341">
         <v>2.7629999999999999</v>
       </c>
-      <c r="M341">
-        <v>475.76159999999999</v>
-      </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>43251</v>
       </c>
@@ -14507,11 +13484,8 @@
       <c r="L342">
         <v>2.952</v>
       </c>
-      <c r="M342">
-        <v>481.4273</v>
-      </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>43280</v>
       </c>
@@ -14548,11 +13522,8 @@
       <c r="L343">
         <v>2.9239999999999999</v>
       </c>
-      <c r="M343">
-        <v>487.43720000000002</v>
-      </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>43312</v>
       </c>
@@ -14589,11 +13560,8 @@
       <c r="L344">
         <v>2.782</v>
       </c>
-      <c r="M344">
-        <v>464.83240000000001</v>
-      </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>43343</v>
       </c>
@@ -14630,11 +13598,8 @@
       <c r="L345">
         <v>2.9159999999999999</v>
       </c>
-      <c r="M345">
-        <v>468.68810000000002</v>
-      </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>43371</v>
       </c>
@@ -14671,11 +13636,8 @@
       <c r="L346">
         <v>3.008</v>
       </c>
-      <c r="M346">
-        <v>486.27940000000001</v>
-      </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>43404</v>
       </c>
@@ -14712,11 +13674,8 @@
       <c r="L347">
         <v>3.2610000000000001</v>
       </c>
-      <c r="M347">
-        <v>456.3168</v>
-      </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>43434</v>
       </c>
@@ -14753,11 +13712,8 @@
       <c r="L348">
         <v>4.6120000000000001</v>
       </c>
-      <c r="M348">
-        <v>406.5197</v>
-      </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>43465</v>
       </c>
@@ -14794,11 +13750,8 @@
       <c r="L349">
         <v>2.94</v>
       </c>
-      <c r="M349">
-        <v>374.32819999999998</v>
-      </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>43496</v>
       </c>
@@ -14835,11 +13788,8 @@
       <c r="L350">
         <v>2.8140000000000001</v>
       </c>
-      <c r="M350">
-        <v>407.89069999999998</v>
-      </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>43524</v>
       </c>
@@ -14876,11 +13826,8 @@
       <c r="L351">
         <v>2.8119999999999998</v>
       </c>
-      <c r="M351">
-        <v>426.34660000000002</v>
-      </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>43553</v>
       </c>
@@ -14917,11 +13864,8 @@
       <c r="L352">
         <v>2.6619999999999999</v>
       </c>
-      <c r="M352">
-        <v>434.12529999999998</v>
-      </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>43585</v>
       </c>
@@ -14958,11 +13902,8 @@
       <c r="L353">
         <v>2.5750000000000002</v>
       </c>
-      <c r="M353">
-        <v>446.45179999999999</v>
-      </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>43616</v>
       </c>
@@ -14999,11 +13940,8 @@
       <c r="L354">
         <v>2.4540000000000002</v>
       </c>
-      <c r="M354">
-        <v>407.7638</v>
-      </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>43644</v>
       </c>
@@ -15040,11 +13978,8 @@
       <c r="L355">
         <v>2.3079999999999998</v>
       </c>
-      <c r="M355">
-        <v>425.35809999999998</v>
-      </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>43677</v>
       </c>
@@ -15081,11 +14016,8 @@
       <c r="L356">
         <v>2.2330000000000001</v>
       </c>
-      <c r="M356">
-        <v>422.4391</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>43707</v>
       </c>
@@ -15122,11 +14054,8 @@
       <c r="L357">
         <v>2.2850000000000001</v>
       </c>
-      <c r="M357">
-        <v>397.05810000000002</v>
-      </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>43738</v>
       </c>
@@ -15163,11 +14092,8 @@
       <c r="L358">
         <v>2.33</v>
       </c>
-      <c r="M358">
-        <v>403.61259999999999</v>
-      </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>43769</v>
       </c>
@@ -15204,11 +14130,8 @@
       <c r="L359">
         <v>2.633</v>
       </c>
-      <c r="M359">
-        <v>407.5104</v>
-      </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>43798</v>
       </c>
@@ -15245,11 +14168,8 @@
       <c r="L360">
         <v>2.2810000000000001</v>
       </c>
-      <c r="M360">
-        <v>409.19130000000001</v>
-      </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>43830</v>
       </c>
@@ -15286,11 +14206,8 @@
       <c r="L361">
         <v>2.1890000000000001</v>
       </c>
-      <c r="M361">
-        <v>436.21890000000002</v>
-      </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>43861</v>
       </c>
@@ -15327,11 +14244,8 @@
       <c r="L362">
         <v>1.841</v>
       </c>
-      <c r="M362">
-        <v>388.80180000000001</v>
-      </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>43889</v>
       </c>
@@ -15368,11 +14282,8 @@
       <c r="L363">
         <v>1.6839999999999999</v>
       </c>
-      <c r="M363">
-        <v>358.44389999999999</v>
-      </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>43921</v>
       </c>
@@ -15409,11 +14320,8 @@
       <c r="L364">
         <v>1.64</v>
       </c>
-      <c r="M364">
-        <v>255.54159999999999</v>
-      </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>43951</v>
       </c>
@@ -15450,11 +14358,8 @@
       <c r="L365">
         <v>1.9490000000000001</v>
       </c>
-      <c r="M365">
-        <v>257.0446</v>
-      </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>43980</v>
       </c>
@@ -15491,11 +14396,8 @@
       <c r="L366">
         <v>1.849</v>
       </c>
-      <c r="M366">
-        <v>307.07560000000001</v>
-      </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>44012</v>
       </c>
@@ -15532,11 +14434,8 @@
       <c r="L367">
         <v>1.7509999999999999</v>
       </c>
-      <c r="M367">
-        <v>325.483</v>
-      </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>44043</v>
       </c>
@@ -15573,11 +14472,8 @@
       <c r="L368">
         <v>1.7989999999999999</v>
       </c>
-      <c r="M368">
-        <v>339.82100000000003</v>
-      </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>44074</v>
       </c>
@@ -15614,11 +14510,8 @@
       <c r="L369">
         <v>2.63</v>
       </c>
-      <c r="M369">
-        <v>358.21089999999998</v>
-      </c>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>44104</v>
       </c>
@@ -15655,11 +14548,8 @@
       <c r="L370">
         <v>2.5270000000000001</v>
       </c>
-      <c r="M370">
-        <v>350.178</v>
-      </c>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>44134</v>
       </c>
@@ -15696,11 +14586,8 @@
       <c r="L371">
         <v>3.3540000000000001</v>
       </c>
-      <c r="M371">
-        <v>340.7799</v>
-      </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>44165</v>
       </c>
@@ -15737,11 +14624,8 @@
       <c r="L372">
         <v>2.8820000000000001</v>
       </c>
-      <c r="M372">
-        <v>385.59399999999999</v>
-      </c>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>44196</v>
       </c>
@@ -15778,11 +14662,8 @@
       <c r="L373">
         <v>2.5390000000000001</v>
       </c>
-      <c r="M373">
-        <v>409.45800000000003</v>
-      </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>44225</v>
       </c>
@@ -15819,11 +14700,8 @@
       <c r="L374">
         <v>2.5640000000000001</v>
       </c>
-      <c r="M374">
-        <v>430.99470000000002</v>
-      </c>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>44253</v>
       </c>
@@ -15860,11 +14738,8 @@
       <c r="L375">
         <v>2.7709999999999999</v>
       </c>
-      <c r="M375">
-        <v>476.98689999999999</v>
-      </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>44286</v>
       </c>
@@ -15901,11 +14776,8 @@
       <c r="L376">
         <v>2.6080000000000001</v>
       </c>
-      <c r="M376">
-        <v>467.41399999999999</v>
-      </c>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>44316</v>
       </c>
@@ -15942,11 +14814,8 @@
       <c r="L377">
         <v>2.931</v>
       </c>
-      <c r="M377">
-        <v>505.85419999999999</v>
-      </c>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>44347</v>
       </c>
@@ -15983,11 +14852,8 @@
       <c r="L378">
         <v>2.9860000000000002</v>
       </c>
-      <c r="M378">
-        <v>519.2278</v>
-      </c>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>44377</v>
       </c>
@@ -16024,11 +14890,8 @@
       <c r="L379">
         <v>3.65</v>
       </c>
-      <c r="M379">
-        <v>535.97550000000001</v>
-      </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>44407</v>
       </c>
@@ -16065,11 +14928,8 @@
       <c r="L380">
         <v>3.9140000000000001</v>
       </c>
-      <c r="M380">
-        <v>541.12900000000002</v>
-      </c>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>44439</v>
       </c>
@@ -16106,11 +14966,8 @@
       <c r="L381">
         <v>4.3769999999999998</v>
       </c>
-      <c r="M381">
-        <v>527.36770000000001</v>
-      </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>44469</v>
       </c>
@@ -16147,11 +15004,8 @@
       <c r="L382">
         <v>5.867</v>
       </c>
-      <c r="M382">
-        <v>557.70569999999998</v>
-      </c>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>44498</v>
       </c>
@@ -16188,11 +15042,8 @@
       <c r="L383">
         <v>5.4260000000000002</v>
       </c>
-      <c r="M383">
-        <v>588.20939999999996</v>
-      </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>44530</v>
       </c>
@@ -16229,11 +15080,8 @@
       <c r="L384">
         <v>4.5670000000000002</v>
       </c>
-      <c r="M384">
-        <v>522.4443</v>
-      </c>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>44561</v>
       </c>
@@ -16270,11 +15118,8 @@
       <c r="L385">
         <v>3.73</v>
       </c>
-      <c r="M385">
-        <v>561.18050000000005</v>
-      </c>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>44592</v>
       </c>
@@ -16311,11 +15156,8 @@
       <c r="L386">
         <v>4.8739999999999997</v>
       </c>
-      <c r="M386">
-        <v>623.78430000000003</v>
-      </c>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>44620</v>
       </c>
@@ -16352,11 +15194,8 @@
       <c r="L387">
         <v>4.4020000000000001</v>
       </c>
-      <c r="M387">
-        <v>673.04870000000005</v>
-      </c>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>44651</v>
       </c>
@@ -16393,11 +15232,8 @@
       <c r="L388">
         <v>5.6420000000000003</v>
       </c>
-      <c r="M388">
-        <v>724.18619999999999</v>
-      </c>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>44680</v>
       </c>
@@ -16434,11 +15270,8 @@
       <c r="L389">
         <v>7.2439999999999998</v>
       </c>
-      <c r="M389">
-        <v>756.75220000000002</v>
-      </c>
-    </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>44712</v>
       </c>
@@ -16475,11 +15308,8 @@
       <c r="L390">
         <v>8.1449999999999996</v>
       </c>
-      <c r="M390">
-        <v>786.45479999999998</v>
-      </c>
-    </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>44742</v>
       </c>
@@ -16516,11 +15346,8 @@
       <c r="L391">
         <v>5.4240000000000004</v>
       </c>
-      <c r="M391">
-        <v>709.2296</v>
-      </c>
-    </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>44771</v>
       </c>
@@ -16557,11 +15384,8 @@
       <c r="L392">
         <v>8.2289999999999992</v>
       </c>
-      <c r="M392">
-        <v>692.63720000000001</v>
-      </c>
-    </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>44804</v>
       </c>
@@ -16598,11 +15422,8 @@
       <c r="L393">
         <v>9.1270000000000007</v>
       </c>
-      <c r="M393">
-        <v>665.92769999999996</v>
-      </c>
-    </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>44834</v>
       </c>
@@ -16639,11 +15460,8 @@
       <c r="L394">
         <v>6.766</v>
       </c>
-      <c r="M394">
-        <v>607.75750000000005</v>
-      </c>
-    </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>44865</v>
       </c>
@@ -16680,11 +15498,8 @@
       <c r="L395">
         <v>6.3550000000000004</v>
       </c>
-      <c r="M395">
-        <v>636.84389999999996</v>
-      </c>
-    </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>44895</v>
       </c>
@@ -16721,11 +15536,8 @@
       <c r="L396">
         <v>6.93</v>
       </c>
-      <c r="M396">
-        <v>621.10910000000001</v>
-      </c>
-    </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>44925</v>
       </c>
@@ -16762,11 +15574,8 @@
       <c r="L397">
         <v>4.4749999999999996</v>
       </c>
-      <c r="M397">
-        <v>610.07190000000003</v>
-      </c>
-    </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>44957</v>
       </c>
@@ -16803,11 +15612,8 @@
       <c r="L398">
         <v>2.6840000000000002</v>
       </c>
-      <c r="M398">
-        <v>606.05730000000005</v>
-      </c>
-    </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>44985</v>
       </c>
@@ -16844,11 +15650,8 @@
       <c r="L399">
         <v>2.7469999999999999</v>
       </c>
-      <c r="M399">
-        <v>581.86609999999996</v>
-      </c>
-    </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>45016</v>
       </c>
@@ -16885,11 +15688,8 @@
       <c r="L400">
         <v>2.2160000000000002</v>
       </c>
-      <c r="M400">
-        <v>574.02409999999998</v>
-      </c>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>45044</v>
       </c>
@@ -16926,11 +15726,8 @@
       <c r="L401">
         <v>2.41</v>
       </c>
-      <c r="M401">
-        <v>564.96759999999995</v>
-      </c>
-    </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>45077</v>
       </c>
@@ -16967,11 +15764,8 @@
       <c r="L402">
         <v>2.266</v>
       </c>
-      <c r="M402">
-        <v>528.22469999999998</v>
-      </c>
-    </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>45107</v>
       </c>
@@ -17008,11 +15802,8 @@
       <c r="L403">
         <v>2.798</v>
       </c>
-      <c r="M403">
-        <v>540.46069999999997</v>
-      </c>
-    </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>45138</v>
       </c>
@@ -17049,11 +15840,8 @@
       <c r="L404">
         <v>2.6339999999999999</v>
       </c>
-      <c r="M404">
-        <v>593.40219999999999</v>
-      </c>
-    </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>45169</v>
       </c>
@@ -17090,11 +15878,8 @@
       <c r="L405">
         <v>2.7679999999999998</v>
       </c>
-      <c r="M405">
-        <v>591.42409999999995</v>
-      </c>
-    </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>45198</v>
       </c>
@@ -17131,11 +15916,8 @@
       <c r="L406">
         <v>2.9289999999999998</v>
       </c>
-      <c r="M406">
-        <v>609.66859999999997</v>
-      </c>
-    </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>45230</v>
       </c>
@@ -17172,11 +15954,8 @@
       <c r="L407">
         <v>3.5750000000000002</v>
       </c>
-      <c r="M407">
-        <v>576.97230000000002</v>
-      </c>
-    </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>45260</v>
       </c>
@@ -17213,11 +15992,8 @@
       <c r="L408">
         <v>2.802</v>
       </c>
-      <c r="M408">
-        <v>555.77020000000005</v>
-      </c>
-    </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>45289</v>
       </c>
@@ -17253,9 +16029,6 @@
       </c>
       <c r="L409">
         <v>2.5139999999999998</v>
-      </c>
-      <c r="M409">
-        <v>535.6413</v>
       </c>
     </row>
   </sheetData>
